--- a/biology/Botanique/Coteau_Sainte-Geneviève/Coteau_Sainte-Geneviève.xlsx
+++ b/biology/Botanique/Coteau_Sainte-Geneviève/Coteau_Sainte-Geneviève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coteau_Sainte-Genevi%C3%A8ve</t>
+          <t>Coteau_Sainte-Geneviève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coteau Sainte-Geneviève désigne une ceinture verte sise sur l'escarpement nord-est de la colline de Québec. Elle s'étire du cimetière Notre-Dame-de-Belmont jusqu'au bout du quartier Saint-Jean-Baptiste, non loin de la côte Sainte-Geneviève. Le nom a été donné par les premiers colons du quartier Saint-Jean-Baptiste afin d'honorer sainte Geneviève, sainte patronne de Paris[1]. 
-Cette bande de forêt accueille un milieu naturel qualifié d'intérêt par la Ville de Québec[2]. Hormis pour les quelques escaliers reliant la haute et la basse-ville[3], le coteau Sainte-Geneviève est davantage un refuge pour la biodiversité qu'un lieu destiné aux humains (la pente y étant bien trop raide). Ses nombreux arbustes à fruits en font un lieu de choix pour les oiseaux[4]. On y retrouve de plus du noyer cendré, espèce en voie de disparition[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coteau Sainte-Geneviève désigne une ceinture verte sise sur l'escarpement nord-est de la colline de Québec. Elle s'étire du cimetière Notre-Dame-de-Belmont jusqu'au bout du quartier Saint-Jean-Baptiste, non loin de la côte Sainte-Geneviève. Le nom a été donné par les premiers colons du quartier Saint-Jean-Baptiste afin d'honorer sainte Geneviève, sainte patronne de Paris. 
+Cette bande de forêt accueille un milieu naturel qualifié d'intérêt par la Ville de Québec. Hormis pour les quelques escaliers reliant la haute et la basse-ville, le coteau Sainte-Geneviève est davantage un refuge pour la biodiversité qu'un lieu destiné aux humains (la pente y étant bien trop raide). Ses nombreux arbustes à fruits en font un lieu de choix pour les oiseaux. On y retrouve de plus du noyer cendré, espèce en voie de disparition.
 </t>
         </is>
       </c>
